--- a/Kriging/Article/ExponentialModel/content/results/metrics_8_9.xlsx
+++ b/Kriging/Article/ExponentialModel/content/results/metrics_8_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_11</t>
+          <t>model_8_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995281175968466</v>
+        <v>0.9989046762263535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7954705237488879</v>
+        <v>0.6611888128366945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9980106240145347</v>
+        <v>0.9997773582323786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9989475062950244</v>
+        <v>0.9995330093162921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985499532288912</v>
+        <v>0.9996573382253598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002346953551595442</v>
+        <v>0.000441523937647828</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1214175323159919</v>
+        <v>0.2011329565813453</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007391179063023737</v>
+        <v>0.0001086751015729319</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005304663324715199</v>
+        <v>0.000230459719923712</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006347936712527654</v>
+        <v>0.000169568247653852</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004737902676892916</v>
+        <v>0.00487310937820167</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01531977007528325</v>
+        <v>0.02101247100290273</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000066406278524</v>
+        <v>1.000083791598351</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0153905315145355</v>
+        <v>0.02118124858172571</v>
       </c>
       <c r="P2" t="n">
-        <v>3534.714444491693</v>
+        <v>3533.450556640964</v>
       </c>
       <c r="Q2" t="n">
-        <v>9488.0412599377</v>
+        <v>8522.470430968615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_12</t>
+          <t>model_8_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999522230373796</v>
+        <v>0.9990619578348994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7954619063396617</v>
+        <v>0.6611412958067202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9978944012366249</v>
+        <v>0.9996472868853228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988889759246039</v>
+        <v>0.9995217303126676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984669445596637</v>
+        <v>0.9995875683154365</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002376234234569237</v>
+        <v>0.0003781238756793247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1214226479823613</v>
+        <v>0.2011611647429669</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007822984497998943</v>
+        <v>0.0001721650612693044</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005599661677563395</v>
+        <v>0.000236025903804925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006711327597115766</v>
+        <v>0.0002040943087445546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004694660961463432</v>
+        <v>0.004914188251013809</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01541503887302668</v>
+        <v>0.01944540757298043</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000067234765815</v>
+        <v>1.000071759651553</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0154862403552568</v>
+        <v>0.01960159809473964</v>
       </c>
       <c r="P3" t="n">
-        <v>3534.689646783524</v>
+        <v>3533.760577405187</v>
       </c>
       <c r="Q3" t="n">
-        <v>9488.016462229531</v>
+        <v>8522.780451732839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_10</t>
+          <t>model_8_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995302024214701</v>
+        <v>0.9991637335822312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.795457013506236</v>
+        <v>0.661077389506485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981327910361325</v>
+        <v>0.999396737276592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9990015758125939</v>
+        <v>0.9995164323161371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986329266197661</v>
+        <v>0.9994613557513528</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002336584471244553</v>
+        <v>0.0003370981718644257</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1214255525796422</v>
+        <v>0.2011991022833949</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000693728882868724</v>
+        <v>0.000294462438211553</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005032148073099024</v>
+        <v>0.0002386404630224249</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005984700267612752</v>
+        <v>0.0002665513579618058</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004794941811752008</v>
+        <v>0.005087525515466695</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01528589045899699</v>
+        <v>0.01836023343708967</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000066112888807</v>
+        <v>1.000063973869168</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01535649540958146</v>
+        <v>0.01850770756070458</v>
       </c>
       <c r="P4" t="n">
-        <v>3534.723300273148</v>
+        <v>3533.990272717729</v>
       </c>
       <c r="Q4" t="n">
-        <v>9488.050115719156</v>
+        <v>8523.010147045379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_13</t>
+          <t>model_8_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995140869884886</v>
+        <v>0.9992216049270285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7954290488575435</v>
+        <v>0.6609934267892722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9977864713567617</v>
+        <v>0.999062998127346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9988297410730677</v>
+        <v>0.9995083286991341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9983870484523092</v>
+        <v>0.9992927160611529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002416736162467743</v>
+        <v>0.0003137702896010874</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1214421536031159</v>
+        <v>0.201248946179333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008223979118496798</v>
+        <v>0.0004573659954849025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005898210678858146</v>
+        <v>0.0002426395948467432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007061092475854988</v>
+        <v>0.0003500037266484131</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004660418106767315</v>
+        <v>0.005232018696552499</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01554585527549946</v>
+        <v>0.0177135623069186</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000068380754538</v>
+        <v>1.000059546746708</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01561766099375082</v>
+        <v>0.01785584220146688</v>
       </c>
       <c r="P5" t="n">
-        <v>3534.655844870616</v>
+        <v>3534.133698803116</v>
       </c>
       <c r="Q5" t="n">
-        <v>9487.982660316624</v>
+        <v>8523.153573130767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_9</t>
+          <t>model_8_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995271667313793</v>
+        <v>0.9992407818585434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954169051702015</v>
+        <v>0.6608647360563717</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9982550861108156</v>
+        <v>0.9986521390997328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9990527973531904</v>
+        <v>0.9994916044521132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987142985530412</v>
+        <v>0.9990817508731427</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002351682774534317</v>
+        <v>0.00030604008733748</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1214493626205022</v>
+        <v>0.2013253425575329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006482922835474919</v>
+        <v>0.0006579130313580096</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004773986882629244</v>
+        <v>0.0002508930042162327</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005628474597587283</v>
+        <v>0.000454401123423779</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00486018600548547</v>
+        <v>0.005384941002662348</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01533519733989203</v>
+        <v>0.01749400146728815</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000066540090331</v>
+        <v>1.000058079723184</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01540603003709672</v>
+        <v>0.01763451779262498</v>
       </c>
       <c r="P6" t="n">
-        <v>3534.710418451618</v>
+        <v>3534.183588920443</v>
       </c>
       <c r="Q6" t="n">
-        <v>9488.037233897625</v>
+        <v>8523.203463248094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_14</t>
+          <t>model_8_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995042547011991</v>
+        <v>0.9992378481572767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7953812316494169</v>
+        <v>0.6607286692552861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9976845816693156</v>
+        <v>0.9982255220282753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9987713315189476</v>
+        <v>0.9994697281711616</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9983101893999006</v>
+        <v>0.9988604380734255</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002465638010513701</v>
+        <v>0.0003072226594374445</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1214705399634558</v>
+        <v>0.2014061176884371</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008602532458886875</v>
+        <v>0.0008661518271091582</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000619260010664159</v>
+        <v>0.0002616889403172255</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007397561898908174</v>
+        <v>0.0005639190983155412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00463235498586531</v>
+        <v>0.005496125955660307</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01570235017605231</v>
+        <v>0.01752776823892433</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000069764416239</v>
+        <v>1.000058304149535</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01577487873833752</v>
+        <v>0.01766855578766752</v>
       </c>
       <c r="P7" t="n">
-        <v>3534.615779540354</v>
+        <v>3534.175875596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>9487.942594986362</v>
+        <v>8523.195749924093</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_8</t>
+          <t>model_8_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995183514806294</v>
+        <v>0.9992079466389245</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7953331477128098</v>
+        <v>0.6605477233153925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9983790872082255</v>
+        <v>0.997743702771666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9991030036153424</v>
+        <v>0.9994386667984877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9987958236180629</v>
+        <v>0.9986073164249558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002395526291303224</v>
+        <v>0.000319275932124587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1214990846653436</v>
+        <v>0.2015135350148155</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006022218412749344</v>
+        <v>0.001101335715609524</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004520942787211607</v>
+        <v>0.0002770177155939459</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005271578555643702</v>
+        <v>0.0006891778740261815</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004929476507995753</v>
+        <v>0.005636982111538702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01547748781715955</v>
+        <v>0.01786829404628732</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000067780628212</v>
+        <v>1.000060591597389</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01554897774870352</v>
+        <v>0.01801181678601712</v>
       </c>
       <c r="P8" t="n">
-        <v>3534.673474838814</v>
+        <v>3534.098909676165</v>
       </c>
       <c r="Q8" t="n">
-        <v>9488.000290284821</v>
+        <v>8523.118784003815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_15</t>
+          <t>model_8_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994930216497833</v>
+        <v>0.9991669459254608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7953179650060352</v>
+        <v>0.6604038415256925</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9975897196735797</v>
+        <v>0.9972730071472631</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9987117695304092</v>
+        <v>0.9994012862595165</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9982356491835174</v>
+        <v>0.9983565351279905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002521506696735988</v>
+        <v>0.0003358032794628266</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1215080977759438</v>
+        <v>0.2015989494605511</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008954975637995863</v>
+        <v>0.001331089976628991</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006492797907971256</v>
+        <v>0.0002954649969689858</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007723880046409721</v>
+        <v>0.0008132785126673708</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004607363877881757</v>
+        <v>0.005746589442866874</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01587925280589735</v>
+        <v>0.01832493600160248</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000071345202333</v>
+        <v>1.000063728126877</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01595259847474707</v>
+        <v>0.01847212660712476</v>
       </c>
       <c r="P9" t="n">
-        <v>3534.570967507182</v>
+        <v>3533.997970094499</v>
       </c>
       <c r="Q9" t="n">
-        <v>9487.897782953189</v>
+        <v>8523.017844422149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_16</t>
+          <t>model_8_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999480929828878</v>
+        <v>0.9991070193064969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7952494098497874</v>
+        <v>0.6602173090570609</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9975005671325202</v>
+        <v>0.9967643834266274</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9986531352490733</v>
+        <v>0.9993521001371062</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9981640664336002</v>
+        <v>0.9980811670527198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00025816465574916</v>
+        <v>0.0003599596407246265</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1215487950781211</v>
+        <v>0.2017096831917139</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0009286206335314007</v>
+        <v>0.001579357564031814</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006788319981217789</v>
+        <v>0.0003197383291580056</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008037251156387799</v>
+        <v>0.0009495460669707717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004587779252994048</v>
+        <v>0.005878032707075225</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01606750309628599</v>
+        <v>0.01897260237090912</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000073046839905</v>
+        <v>1.000068312476553</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0161417182861156</v>
+        <v>0.01912499519951509</v>
       </c>
       <c r="P10" t="n">
-        <v>3534.523825952056</v>
+        <v>3533.859037283794</v>
       </c>
       <c r="Q10" t="n">
-        <v>9487.850641398063</v>
+        <v>8522.878911611444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_7</t>
+          <t>model_8_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995017313522454</v>
+        <v>0.9990408519715407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7951894203613286</v>
+        <v>0.6600588576426512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9985055690054073</v>
+        <v>0.996271231458165</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999147626962498</v>
+        <v>0.9992959961895898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9988751833459654</v>
+        <v>0.9978099678448421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002478188134759034</v>
+        <v>0.0003866316284751319</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1215844074298812</v>
+        <v>0.2018037467960523</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005552297383233809</v>
+        <v>0.001820073135220959</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000429603708757329</v>
+        <v>0.000347425605333619</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0004924161810000421</v>
+        <v>0.001083750632079359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005005397372031081</v>
+        <v>0.005989846945458488</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01574226201903346</v>
+        <v>0.01966295065536025</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000070119517875</v>
+        <v>1.000073374237183</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01581497493261367</v>
+        <v>0.019820888539185</v>
       </c>
       <c r="P11" t="n">
-        <v>3534.605625339268</v>
+        <v>3533.716076365301</v>
       </c>
       <c r="Q11" t="n">
-        <v>9487.932440785275</v>
+        <v>8522.735950692952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_17</t>
+          <t>model_8_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9994684040316475</v>
+        <v>0.998972075380314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7951737259859666</v>
+        <v>0.6599181928461115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9974187850666607</v>
+        <v>0.9958044695396552</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9985948637707243</v>
+        <v>0.9992342750633459</v>
       </c>
       <c r="F12" t="n">
-        <v>0.998095811143224</v>
+        <v>0.9975489928483399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002643944842191871</v>
+        <v>0.0004143554048662422</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1215937242890578</v>
+        <v>0.201887251495681</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009590053319156307</v>
+        <v>0.002047907289819821</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0007082013494646047</v>
+        <v>0.0003778849570161701</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0008336055493072587</v>
+        <v>0.00121289568447056</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004575919193594778</v>
+        <v>0.006081946291186567</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01626021169047891</v>
+        <v>0.02035572167392358</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000074809549373</v>
+        <v>1.000078635604321</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01633531699402527</v>
+        <v>0.02051922407299148</v>
       </c>
       <c r="P12" t="n">
-        <v>3534.47613662341</v>
+        <v>3533.577572973099</v>
       </c>
       <c r="Q12" t="n">
-        <v>9487.802952069418</v>
+        <v>8522.59744730075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_18</t>
+          <t>model_8_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9994556769422391</v>
+        <v>0.9988946603392179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7950997047250736</v>
+        <v>0.6597661480421789</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9973425405694245</v>
+        <v>0.995329070893708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.998538194496471</v>
+        <v>0.9991628475244827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9980308370824614</v>
+        <v>0.9972789168736993</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002707244273339987</v>
+        <v>0.0004455613319174654</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1216376665070758</v>
+        <v>0.2019775118592889</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0009873326433821527</v>
+        <v>0.002279957172857906</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0007367631754735032</v>
+        <v>0.0004131344195334087</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0008620495439351897</v>
+        <v>0.001346544410831391</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004565466368582756</v>
+        <v>0.006185567285551735</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01645370558062829</v>
+        <v>0.02110832375906399</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000076600585949</v>
+        <v>1.000084557807587</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01652970462514375</v>
+        <v>0.02127787125191118</v>
       </c>
       <c r="P13" t="n">
-        <v>3534.428818255515</v>
+        <v>3533.432351301361</v>
       </c>
       <c r="Q13" t="n">
-        <v>9487.755633701521</v>
+        <v>8522.452225629011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_19</t>
+          <t>model_8_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9994431132922286</v>
+        <v>0.9988187475239659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7950230400188383</v>
+        <v>0.6596497104911819</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9972721591866086</v>
+        <v>0.9948882212549163</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9984839526741049</v>
+        <v>0.999088397266499</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9979697549712359</v>
+        <v>0.997024367671954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002769730822565859</v>
+        <v>0.0004761617132060208</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12168317798844</v>
+        <v>0.2020466342194011</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001013481617075196</v>
+        <v>0.002495143118360908</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007641015438086558</v>
+        <v>0.0004498755927553774</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000888789741841433</v>
+        <v>0.001472509619897858</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004555744271800597</v>
+        <v>0.006269808911260921</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01664250829221924</v>
+        <v>0.02182112997087962</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0000783686223</v>
+        <v>1.000090365091496</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01671937940932725</v>
+        <v>0.02199640290680219</v>
       </c>
       <c r="P14" t="n">
-        <v>3534.383180464936</v>
+        <v>3533.299506055606</v>
       </c>
       <c r="Q14" t="n">
-        <v>9487.709995910944</v>
+        <v>8522.319380383256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_6</t>
+          <t>model_8_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9994751942632145</v>
+        <v>0.9987417947655671</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7950024768638</v>
+        <v>0.6595477014932476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9986290000076092</v>
+        <v>0.9944697016000856</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991882239462324</v>
+        <v>0.9990046144411031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9989509300050512</v>
+        <v>0.9967761832730337</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002610172957532051</v>
+        <v>0.0005071812945559114</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1216953851655528</v>
+        <v>0.2021071911671342</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005093711049695786</v>
+        <v>0.002699429432132579</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0004091424623202541</v>
+        <v>0.0004912223843484424</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000459256216256672</v>
+        <v>0.001595325167865335</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005090051352225546</v>
+        <v>0.006352270183619656</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01615602970265916</v>
+        <v>0.02252068592551993</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000073853985008</v>
+        <v>1.000096251930419</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0162306537935394</v>
+        <v>0.02270157787503967</v>
       </c>
       <c r="P15" t="n">
-        <v>3534.501847771167</v>
+        <v>3533.17328407068</v>
       </c>
       <c r="Q15" t="n">
-        <v>9487.828663217175</v>
+        <v>8522.193158398331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_20</t>
+          <t>model_8_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9994306396883362</v>
+        <v>0.9986697784083985</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7949502091323027</v>
+        <v>0.6594694752499082</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9972061898703964</v>
+        <v>0.9940898817355798</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9984316184932598</v>
+        <v>0.9989243187037461</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9979116270290284</v>
+        <v>0.9965488215839413</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002831769518564427</v>
+        <v>0.0005362110174169895</v>
       </c>
       <c r="H16" t="n">
-        <v>0.121726413548818</v>
+        <v>0.2021536296443782</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001037991364470959</v>
+        <v>0.002884825742966633</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007904784435892094</v>
+        <v>0.0005308482993569346</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009142366795344051</v>
+        <v>0.00170783647217846</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004547953686697025</v>
+        <v>0.006415873133106809</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01682786236740848</v>
+        <v>0.02315623063922515</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00008012398679</v>
+        <v>1.000101761137668</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01690558962798779</v>
+        <v>0.02334222744756887</v>
       </c>
       <c r="P16" t="n">
-        <v>3534.338877168288</v>
+        <v>3533.061965570316</v>
       </c>
       <c r="Q16" t="n">
-        <v>9487.665692614297</v>
+        <v>8522.081839897966</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_21</t>
+          <t>model_8_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9994183876901596</v>
+        <v>0.9985972756862219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7948777814492427</v>
+        <v>0.6593943432040458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9971448361767639</v>
+        <v>0.9937283792928525</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9983810580024678</v>
+        <v>0.9988355418987424</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978564907149396</v>
+        <v>0.9963262643439157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002892706036736694</v>
+        <v>0.0005654367935352627</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1217694097501954</v>
+        <v>0.2021982312723375</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001060786257901351</v>
+        <v>0.003061281019539225</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008159613875646574</v>
+        <v>0.0005746596179349193</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0009383739583705554</v>
+        <v>0.001817970265868934</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00454123514148216</v>
+        <v>0.006485175438368464</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01700795706937401</v>
+        <v>0.0237789148939825</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000081848165522</v>
+        <v>1.000107307551544</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01708651618057836</v>
+        <v>0.02396991326263175</v>
       </c>
       <c r="P17" t="n">
-        <v>3534.296295926115</v>
+        <v>3532.955824079183</v>
       </c>
       <c r="Q17" t="n">
-        <v>9487.623111372122</v>
+        <v>8521.975698406834</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_22</t>
+          <t>model_8_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9994066063003137</v>
+        <v>0.998532751948509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7948073511754071</v>
+        <v>0.6593423831844092</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9970895990444471</v>
+        <v>0.993413782892549</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9983320881158607</v>
+        <v>0.9987536465992247</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978048581226885</v>
+        <v>0.996130271749211</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002951301938080992</v>
+        <v>0.0005914462488508446</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1218112202031736</v>
+        <v>0.2022290769845498</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001081308649790285</v>
+        <v>0.003214840686814211</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008406426526659917</v>
+        <v>0.0006150749162446313</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0009609773967177975</v>
+        <v>0.001914958384465192</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004535662752561435</v>
+        <v>0.006533061404744238</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01717935370752053</v>
+        <v>0.02431966794285737</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000083506117271</v>
+        <v>1.00011224357799</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01725870449332174</v>
+        <v>0.02451500977926525</v>
       </c>
       <c r="P18" t="n">
-        <v>3534.256187928083</v>
+        <v>3532.865879502571</v>
       </c>
       <c r="Q18" t="n">
-        <v>9487.583003374089</v>
+        <v>8521.885753830222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_5</t>
+          <t>model_8_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9994364682178922</v>
+        <v>0.9984727190473465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7947463284432755</v>
+        <v>0.6593045457810474</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9987469381153942</v>
+        <v>0.9931301534049807</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9992253296804869</v>
+        <v>0.9986737045768893</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990223325370132</v>
+        <v>0.9959505286309291</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002802780753459938</v>
+        <v>0.0006156454523625628</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1218474459330117</v>
+        <v>0.202251538901676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004655532606122935</v>
+        <v>0.003353284895642904</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003904408371507727</v>
+        <v>0.000654526273028182</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004279980001053032</v>
+        <v>0.002003905351563886</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005186607271596571</v>
+        <v>0.006571659440322757</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01674150755893846</v>
+        <v>0.0248122036982321</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00007930375922</v>
+        <v>1.00011683605819</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01681883594991962</v>
+        <v>0.02501150170867894</v>
       </c>
       <c r="P19" t="n">
-        <v>3534.359456642766</v>
+        <v>3532.785678648956</v>
       </c>
       <c r="Q19" t="n">
-        <v>9487.686272088773</v>
+        <v>8521.805552976606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_23</t>
+          <t>model_8_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993956538044403</v>
+        <v>0.9984093581116725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7947425518294847</v>
+        <v>0.6592578787833105</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9970401880554496</v>
+        <v>0.992844506769483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9982866711501811</v>
+        <v>0.9985843073539969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997757759257387</v>
+        <v>0.9957650735181206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003005775253714775</v>
+        <v>0.0006411861833179897</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1218496878940991</v>
+        <v>0.2022792424474419</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001099666439872668</v>
+        <v>0.003492713707488569</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0008635332135331806</v>
+        <v>0.000698643767591772</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0009815960844817685</v>
+        <v>0.002095678933634464</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004529620401012691</v>
+        <v>0.006632646715590774</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01733717178121846</v>
+        <v>0.02532165443485061</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000085047421813</v>
+        <v>1.000121683130992</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01741725152274028</v>
+        <v>0.02552504448482217</v>
       </c>
       <c r="P20" t="n">
-        <v>3534.219609698674</v>
+        <v>3532.704381371248</v>
       </c>
       <c r="Q20" t="n">
-        <v>9487.546425144681</v>
+        <v>8521.724255698899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_24</t>
+          <t>model_8_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9993852676575136</v>
+        <v>0.9983520994850394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7946826047963319</v>
+        <v>0.6592309727088506</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9969948314596903</v>
+        <v>0.9925934833352822</v>
       </c>
       <c r="E21" t="n">
-        <v>0.998243973176017</v>
+        <v>0.9984991450207271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9977139186035683</v>
+        <v>0.9955988095737044</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003057431777149764</v>
+        <v>0.0006642670794910214</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1218852750425557</v>
+        <v>0.2022952150555233</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001116517890950568</v>
+        <v>0.003615242366420798</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000885053378121089</v>
+        <v>0.0007406713457815364</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001000788409958555</v>
+        <v>0.002177955650178881</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004524221415178259</v>
+        <v>0.006691216601165411</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01748551336721277</v>
+        <v>0.02577337927961759</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000086509026147</v>
+        <v>1.000126063380887</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01756627829291649</v>
+        <v>0.02598039769988332</v>
       </c>
       <c r="P21" t="n">
-        <v>3534.18553019385</v>
+        <v>3532.633652522421</v>
       </c>
       <c r="Q21" t="n">
-        <v>9487.512345639858</v>
+        <v>8521.653526850072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_4</t>
+          <t>model_8_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9993822372415641</v>
+        <v>0.9982938897934059</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7944423129782747</v>
+        <v>0.6591940745813627</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988559325516561</v>
+        <v>0.9923434311167446</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9992574953082463</v>
+        <v>0.9984123444540306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990871052209711</v>
+        <v>0.9954322039035315</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003072503848979324</v>
+        <v>0.0006877313490318051</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1220279226458204</v>
+        <v>0.2023171193779162</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004250582812232341</v>
+        <v>0.003737296959044744</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003742290702694781</v>
+        <v>0.0007835073915271496</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003996421631311084</v>
+        <v>0.002260401471776808</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005284153558477339</v>
+        <v>0.006754689955975062</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01752855912212788</v>
+        <v>0.02622463248611513</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000086935485461</v>
+        <v>1.000130516386673</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01760952287454744</v>
+        <v>0.02643527548835497</v>
       </c>
       <c r="P22" t="n">
-        <v>3534.1756951136</v>
+        <v>3532.564224554694</v>
       </c>
       <c r="Q22" t="n">
-        <v>9487.502510559607</v>
+        <v>8521.584098882344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_3</t>
+          <t>model_8_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9993077688255477</v>
+        <v>0.9982430643476635</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7940874518152878</v>
+        <v>0.6591768923602452</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9989506600253056</v>
+        <v>0.9921299245835545</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9992812566519345</v>
+        <v>0.9983328981415986</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9991409743910644</v>
+        <v>0.9952872887226718</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003442879841564309</v>
+        <v>0.0007082190363045723</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1222385835613735</v>
+        <v>0.2023273194866049</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003898639426443184</v>
+        <v>0.00384151300273145</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003622531384597903</v>
+        <v>0.000822714115667042</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003760596077734649</v>
+        <v>0.002332113623803759</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005393070139099101</v>
+        <v>0.006802503581952985</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0185549988993918</v>
+        <v>0.02661238501721656</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000097415152306</v>
+        <v>1.000134404502168</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01864070373836737</v>
+        <v>0.02682614254765124</v>
       </c>
       <c r="P23" t="n">
-        <v>3533.948064175142</v>
+        <v>3532.50551427761</v>
       </c>
       <c r="Q23" t="n">
-        <v>9487.274879621149</v>
+        <v>8521.525388605261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_2</t>
+          <t>model_8_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9992083408842307</v>
+        <v>0.9981989485580115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7936834435541844</v>
+        <v>0.6591639328697461</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990289550953777</v>
+        <v>0.9919470103723169</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9992940688125455</v>
+        <v>0.9982624243656311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9991815719656016</v>
+        <v>0.9951619352905648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003937394488523501</v>
+        <v>0.0007260020677955818</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1224784203174127</v>
+        <v>0.202335012799986</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003607747766504365</v>
+        <v>0.003930796431881981</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000355795693804123</v>
+        <v>0.0008574928965679826</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003582870200901448</v>
+        <v>0.002394145526376202</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005514076285225432</v>
+        <v>0.00683817920645903</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0198428689672726</v>
+        <v>0.0269444255421336</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000111407281532</v>
+        <v>1.000137779333077</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01993452242944064</v>
+        <v>0.02716085010758091</v>
       </c>
       <c r="P24" t="n">
-        <v>3533.679642329498</v>
+        <v>3532.45591538988</v>
       </c>
       <c r="Q24" t="n">
-        <v>9487.006457775506</v>
+        <v>8521.475789717531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_1</t>
+          <t>model_8_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9990772407177577</v>
+        <v>0.9981567714494722</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7932607878240756</v>
+        <v>0.6591460328821477</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990844731025522</v>
+        <v>0.9917744466379131</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9992933495479686</v>
+        <v>0.9981945752369265</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9992047205682075</v>
+        <v>0.9950429951247377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004589434062922715</v>
+        <v>0.000743003618833638</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1227293270165822</v>
+        <v>0.2023456390058636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000340148030613142</v>
+        <v>0.004015027623380731</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003561582096466236</v>
+        <v>0.0008909764150703214</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003481531494279219</v>
+        <v>0.002453003785416446</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00563690724200063</v>
+        <v>0.006874011760270964</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02142296446088336</v>
+        <v>0.02725809272186222</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000129856526749</v>
+        <v>1.000141005856068</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02152191632444609</v>
+        <v>0.02747703674288158</v>
       </c>
       <c r="P25" t="n">
-        <v>3533.373167306687</v>
+        <v>3532.409619285376</v>
       </c>
       <c r="Q25" t="n">
-        <v>9486.699982752694</v>
+        <v>8521.429493613026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_9_0</t>
+          <t>model_8_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9989060797310871</v>
+        <v>0.9981199613184732</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7928327091090915</v>
+        <v>0.6591375688333765</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9991133934829779</v>
+        <v>0.9916251523123761</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9992727545560098</v>
+        <v>0.9981346467051777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9992051384149481</v>
+        <v>0.99493948886627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005440720067394578</v>
+        <v>0.0007578417464950979</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1229834530338343</v>
+        <v>0.202350663630842</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003294031683116574</v>
+        <v>0.004087900634430402</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003665382715890215</v>
+        <v>0.0009205511220699815</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003479702267307485</v>
+        <v>0.002504224482233328</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005770794349428923</v>
+        <v>0.006901006927846323</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02332535116004597</v>
+        <v>0.02752892563277939</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000153943384147</v>
+        <v>1.000143821808562</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02343309007590685</v>
+        <v>0.02775004505349181</v>
       </c>
       <c r="P26" t="n">
-        <v>3533.032857909076</v>
+        <v>3532.37007194366</v>
       </c>
       <c r="Q26" t="n">
-        <v>9486.359673355084</v>
+        <v>8521.389946271311</v>
       </c>
     </row>
   </sheetData>
